--- a/VioletVreath/tool/LASER状態遷移整理.xlsx
+++ b/VioletVreath/tool/LASER状態遷移整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuge\workspace\_git_repo_my_main\VioletVreath\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461BCC4-5973-41C1-9132-4D487D59B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3E90F-45A7-4EA3-BB6E-78BB909E72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4185" windowWidth="24285" windowHeight="10725" activeTab="1" xr2:uid="{015BAC19-E66F-4A44-9B87-8C178FFDA548}"/>
+    <workbookView xWindow="585" yWindow="2280" windowWidth="24360" windowHeight="12045" activeTab="1" xr2:uid="{015BAC19-E66F-4A44-9B87-8C178FFDA548}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -759,19 +759,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -898,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,9 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -962,12 +946,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -977,28 +955,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,10 +976,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,51 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,19 +1819,19 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="15" customWidth="1"/>
-    <col min="5" max="8" width="6.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="40.77734375" style="15" customWidth="1"/>
-    <col min="10" max="20" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="25.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" style="14" customWidth="1"/>
+    <col min="5" max="8" width="6.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="40.77734375" style="14" customWidth="1"/>
+    <col min="10" max="20" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1923,603 +1892,659 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="C3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="24" t="s">
+      <c r="I3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="51" t="s">
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="51" t="s">
+      <c r="M6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="51" t="s">
+      <c r="O6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="27" t="str">
         <f>C7</f>
         <v>おニューの AimInfo 取得
 AimInfo.pTarget = ターゲット
 ターゲットのちょっと未来座標をAimInfo.T1 に設定
 AimInfo.spent_frames_to_t1 概算設定</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="52" t="str">
+      <c r="J7" s="42" t="str">
         <f>I7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="K7" s="52" t="str">
+      <c r="K7" s="42" t="str">
         <f>J7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="L7" s="52" t="str">
+      <c r="L7" s="42" t="str">
         <f>K7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="M7" s="52" t="str">
+      <c r="M7" s="42" t="str">
         <f t="shared" ref="M7:P7" si="0">L7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="N7" s="52" t="str">
+      <c r="N7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="O7" s="52" t="str">
+      <c r="O7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="P7" s="52" t="str">
+      <c r="P7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="Q7" s="47" t="str">
-        <f t="shared" ref="K7:T7" si="1">P7</f>
+      <c r="Q7" s="42" t="str">
+        <f t="shared" ref="Q7:Q14" si="1">P7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="R7" s="47" t="str">
-        <f t="shared" si="1"/>
+      <c r="R7" s="42" t="str">
+        <f t="shared" ref="R7:R14" si="2">Q7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="S7" s="47" t="str">
-        <f t="shared" si="1"/>
+      <c r="S7" s="42" t="str">
+        <f t="shared" ref="S7:S14" si="3">R7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
-      <c r="T7" s="47" t="str">
-        <f t="shared" si="1"/>
+      <c r="T7" s="42" t="str">
+        <f t="shared" ref="T7:T14" si="4">S7</f>
         <v>前方チップのAimInfoの参照をコピー</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="23" t="str">
         <f>C8</f>
         <v>AimInfo.T1 座標</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="29" t="str">
+      <c r="I8" s="23" t="str">
         <f>C8</f>
         <v>AimInfo.T1 座標</v>
       </c>
-      <c r="J8" s="52" t="str">
-        <f t="shared" ref="J8:K14" si="2">I8</f>
+      <c r="J8" s="42" t="str">
+        <f t="shared" ref="J8:K14" si="5">I8</f>
         <v>AimInfo.T1 座標</v>
       </c>
-      <c r="K8" s="52" t="str">
+      <c r="K8" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="L8" s="42" t="str">
+        <f t="shared" ref="L8:P8" si="6">K8</f>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="M8" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="N8" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="O8" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="P8" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="Q8" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>AimInfo.T1 座標</v>
+      </c>
+      <c r="R8" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AimInfo.T1 座標</v>
       </c>
-      <c r="L8" s="52" t="str">
-        <f t="shared" ref="L8:P8" si="3">K8</f>
-        <v>AimInfo.T1 座標</v>
-      </c>
-      <c r="M8" s="52" t="str">
+      <c r="S8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>AimInfo.T1 座標</v>
       </c>
-      <c r="N8" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="T8" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>AimInfo.T1 座標</v>
       </c>
-      <c r="O8" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>AimInfo.T1 座標</v>
-      </c>
-      <c r="P8" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v>AimInfo.T1 座標</v>
-      </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
     </row>
     <row r="9" spans="1:20" ht="189" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="46" t="str">
+      <c r="I9" s="36" t="str">
         <f>D9</f>
         <v>AimInfo.T1 座標は更新しない（出来ない）
 aimChip(pTipChip_AimInfo-&gt;t1_x,
         pTipChip_AimInfo-&gt;t1_y,
         pTipChip_AimInfo-&gt;t1_z );</v>
       </c>
-      <c r="J9" s="52" t="str">
+      <c r="J9" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="K9" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="L9" s="42" t="str">
+        <f t="shared" ref="L9:P9" si="7">K9</f>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="M9" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="N9" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="O9" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="P9" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="Q9" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>AimInfo.T1 座標は更新しない（出来ない）
+aimChip(pTipChip_AimInfo-&gt;t1_x,
+        pTipChip_AimInfo-&gt;t1_y,
+        pTipChip_AimInfo-&gt;t1_z );</v>
+      </c>
+      <c r="R9" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AimInfo.T1 座標は更新しない（出来ない）
 aimChip(pTipChip_AimInfo-&gt;t1_x,
         pTipChip_AimInfo-&gt;t1_y,
         pTipChip_AimInfo-&gt;t1_z );</v>
       </c>
-      <c r="K9" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="S9" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>AimInfo.T1 座標は更新しない（出来ない）
 aimChip(pTipChip_AimInfo-&gt;t1_x,
         pTipChip_AimInfo-&gt;t1_y,
         pTipChip_AimInfo-&gt;t1_z );</v>
       </c>
-      <c r="L9" s="52" t="str">
-        <f t="shared" ref="L9:P9" si="4">K9</f>
-        <v>AimInfo.T1 座標は更新しない（出来ない）
-aimChip(pTipChip_AimInfo-&gt;t1_x,
-        pTipChip_AimInfo-&gt;t1_y,
-        pTipChip_AimInfo-&gt;t1_z );</v>
-      </c>
-      <c r="M9" s="52" t="str">
+      <c r="T9" s="42" t="str">
         <f t="shared" si="4"/>
         <v>AimInfo.T1 座標は更新しない（出来ない）
 aimChip(pTipChip_AimInfo-&gt;t1_x,
         pTipChip_AimInfo-&gt;t1_y,
         pTipChip_AimInfo-&gt;t1_z );</v>
       </c>
-      <c r="N9" s="52" t="str">
-        <f t="shared" si="4"/>
-        <v>AimInfo.T1 座標は更新しない（出来ない）
-aimChip(pTipChip_AimInfo-&gt;t1_x,
-        pTipChip_AimInfo-&gt;t1_y,
-        pTipChip_AimInfo-&gt;t1_z );</v>
-      </c>
-      <c r="O9" s="52" t="str">
-        <f t="shared" si="4"/>
-        <v>AimInfo.T1 座標は更新しない（出来ない）
-aimChip(pTipChip_AimInfo-&gt;t1_x,
-        pTipChip_AimInfo-&gt;t1_y,
-        pTipChip_AimInfo-&gt;t1_z );</v>
-      </c>
-      <c r="P9" s="52" t="str">
-        <f t="shared" si="4"/>
-        <v>AimInfo.T1 座標は更新しない（出来ない）
-aimChip(pTipChip_AimInfo-&gt;t1_x,
-        pTipChip_AimInfo-&gt;t1_y,
-        pTipChip_AimInfo-&gt;t1_z );</v>
-      </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" ht="126" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="38" t="str">
         <f>C10</f>
         <v>onHit() でターゲット命中 ||
 T1 の BOX と衝突 ||
 AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="48" t="str">
+      <c r="I10" s="38" t="str">
         <f>D10</f>
         <v>onHit() でターゲット命中 ||
 T1 の BOX と衝突 ||
 AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
       </c>
-      <c r="J10" s="52" t="str">
+      <c r="J10" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="K10" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="L10" s="42" t="str">
+        <f t="shared" ref="L10:P10" si="8">K10</f>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="M10" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="N10" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="O10" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="P10" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="Q10" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>onHit() でターゲット命中 ||
+T1 の BOX と衝突 ||
+AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
+      </c>
+      <c r="R10" s="42" t="str">
         <f t="shared" si="2"/>
         <v>onHit() でターゲット命中 ||
 T1 の BOX と衝突 ||
 AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
       </c>
-      <c r="K10" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="S10" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>onHit() でターゲット命中 ||
 T1 の BOX と衝突 ||
 AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
       </c>
-      <c r="L10" s="52" t="str">
-        <f t="shared" ref="L10:P10" si="5">K10</f>
+      <c r="T10" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>onHit() でターゲット命中 ||
 T1 の BOX と衝突 ||
 AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
       </c>
-      <c r="M10" s="52" t="str">
-        <f t="shared" si="5"/>
-        <v>onHit() でターゲット命中 ||
-T1 の BOX と衝突 ||
-AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
-      </c>
-      <c r="N10" s="52" t="str">
-        <f t="shared" si="5"/>
-        <v>onHit() でターゲット命中 ||
-T1 の BOX と衝突 ||
-AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
-      </c>
-      <c r="O10" s="52" t="str">
-        <f t="shared" si="5"/>
-        <v>onHit() でターゲット命中 ||
-T1 の BOX と衝突 ||
-AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
-      </c>
-      <c r="P10" s="52" t="str">
-        <f t="shared" si="5"/>
-        <v>onHit() でターゲット命中 ||
-T1 の BOX と衝突 ||
-AimInfo.spent_frames_to_t1 &lt;= active_frame</v>
-      </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="16" t="str">
         <f>C11</f>
         <v>・AimInfo.T2 が設定済みの場合、それを採用。
 未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
@@ -2529,19 +2554,19 @@
 ・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
 →PHASE_T2</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I11" s="16" t="str">
         <f>C11</f>
         <v>・AimInfo.T2 が設定済みの場合、それを採用。
 未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
@@ -2551,7 +2576,87 @@
 ・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
 →PHASE_T2</v>
       </c>
-      <c r="J11" s="52" t="str">
+      <c r="J11" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="K11" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="L11" s="42" t="str">
+        <f t="shared" ref="L11:P11" si="9">K11</f>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="M11" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="N11" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="O11" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="P11" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="Q11" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>・AimInfo.T2 が設定済みの場合、それを採用。
+未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
+・AimInfo.spent_frames_to_t1 = active_frame
+AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
+・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
+・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
+→PHASE_T2</v>
+      </c>
+      <c r="R11" s="42" t="str">
         <f t="shared" si="2"/>
         <v>・AimInfo.T2 が設定済みの場合、それを採用。
 未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
@@ -2561,8 +2666,8 @@
 ・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
 →PHASE_T2</v>
       </c>
-      <c r="K11" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="S11" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>・AimInfo.T2 が設定済みの場合、それを採用。
 未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
 ・AimInfo.spent_frames_to_t1 = active_frame
@@ -2571,8 +2676,8 @@
 ・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
 →PHASE_T2</v>
       </c>
-      <c r="L11" s="52" t="str">
-        <f t="shared" ref="L11:P11" si="6">K11</f>
+      <c r="T11" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>・AimInfo.T2 が設定済みの場合、それを採用。
 未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
 ・AimInfo.spent_frames_to_t1 = active_frame
@@ -2581,278 +2686,286 @@
 ・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
 →PHASE_T2</v>
       </c>
-      <c r="M11" s="52" t="str">
-        <f t="shared" si="6"/>
-        <v>・AimInfo.T2 が設定済みの場合、それを採用。
-未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
-・AimInfo.spent_frames_to_t1 = active_frame
-AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
-・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
-・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
-→PHASE_T2</v>
-      </c>
-      <c r="N11" s="52" t="str">
-        <f t="shared" si="6"/>
-        <v>・AimInfo.T2 が設定済みの場合、それを採用。
-未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
-・AimInfo.spent_frames_to_t1 = active_frame
-AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
-・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
-・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
-→PHASE_T2</v>
-      </c>
-      <c r="O11" s="52" t="str">
-        <f t="shared" si="6"/>
-        <v>・AimInfo.T2 が設定済みの場合、それを採用。
-未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
-・AimInfo.spent_frames_to_t1 = active_frame
-AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
-・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
-・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
-→PHASE_T2</v>
-      </c>
-      <c r="P11" s="52" t="str">
-        <f t="shared" si="6"/>
-        <v>・AimInfo.T2 が設定済みの場合、それを採用。
-未設定の場合、下記の要領で設定。（先端チップが最初にT2をスタートするとは限らない。先端以外チップもT2設定可）
-・AimInfo.spent_frames_to_t1 = active_frame
-AimInfo.spent_frames_to_t2 の概算を求めて代入active_frame
-・後方チップがある場合、setT2BySphere(ZF_R, pB-&gt;_x, pB-&gt;_y, pB-&gt;_z, _x, _y, _z);  または
-・後方チップが無い場合、setT2BySphere(ZF_R, pOrg_-&gt;_x, pOrg_-&gt;_y, pOrg_-&gt;_z, _x, _y, _z);
-→PHASE_T2</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
     </row>
     <row r="12" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="16" t="str">
         <f>C12</f>
         <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
          pTipChip_AimInfo-&gt;t2_y,
          pTipChip_AimInfo-&gt;t2_z );</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="16" t="str">
         <f>C12</f>
         <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
          pTipChip_AimInfo-&gt;t2_y,
          pTipChip_AimInfo-&gt;t2_z );</v>
       </c>
-      <c r="J12" s="52" t="str">
+      <c r="J12" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="K12" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="L12" s="42" t="str">
+        <f t="shared" ref="L12:P12" si="10">K12</f>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="M12" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="N12" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="O12" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="P12" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="Q12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
+         pTipChip_AimInfo-&gt;t2_y,
+         pTipChip_AimInfo-&gt;t2_z );</v>
+      </c>
+      <c r="R12" s="42" t="str">
         <f t="shared" si="2"/>
         <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
          pTipChip_AimInfo-&gt;t2_y,
          pTipChip_AimInfo-&gt;t2_z );</v>
       </c>
-      <c r="K12" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="S12" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
          pTipChip_AimInfo-&gt;t2_y,
          pTipChip_AimInfo-&gt;t2_z );</v>
       </c>
-      <c r="L12" s="52" t="str">
-        <f t="shared" ref="L12:P12" si="7">K12</f>
+      <c r="T12" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
          pTipChip_AimInfo-&gt;t2_y,
          pTipChip_AimInfo-&gt;t2_z );</v>
       </c>
-      <c r="M12" s="52" t="str">
-        <f t="shared" si="7"/>
-        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
-         pTipChip_AimInfo-&gt;t2_y,
-         pTipChip_AimInfo-&gt;t2_z );</v>
-      </c>
-      <c r="N12" s="52" t="str">
-        <f t="shared" si="7"/>
-        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
-         pTipChip_AimInfo-&gt;t2_y,
-         pTipChip_AimInfo-&gt;t2_z );</v>
-      </c>
-      <c r="O12" s="52" t="str">
-        <f t="shared" si="7"/>
-        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
-         pTipChip_AimInfo-&gt;t2_y,
-         pTipChip_AimInfo-&gt;t2_z );</v>
-      </c>
-      <c r="P12" s="52" t="str">
-        <f t="shared" si="7"/>
-        <v>aimChip(pTipChip_AimInfo-&gt;t2_x,
-         pTipChip_AimInfo-&gt;t2_y,
-         pTipChip_AimInfo-&gt;t2_z );</v>
-      </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="48" t="str">
+      <c r="D13" s="38" t="str">
         <f>C13</f>
         <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="48" t="str">
+      <c r="I13" s="38" t="str">
         <f>D13</f>
         <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
       </c>
-      <c r="J13" s="52" t="str">
+      <c r="J13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="K13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="L13" s="42" t="str">
+        <f t="shared" ref="L13:P13" si="11">K13</f>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="M13" s="42" t="str">
+        <f t="shared" si="11"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="N13" s="42" t="str">
+        <f t="shared" si="11"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="O13" s="42" t="str">
+        <f t="shared" si="11"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="P13" s="42" t="str">
+        <f t="shared" si="11"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="Q13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
+      </c>
+      <c r="R13" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
       </c>
-      <c r="K13" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="S13" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
       </c>
-      <c r="L13" s="52" t="str">
-        <f t="shared" ref="L13:P13" si="8">K13</f>
+      <c r="T13" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
       </c>
-      <c r="M13" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
-      </c>
-      <c r="N13" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
-      </c>
-      <c r="O13" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
-      </c>
-      <c r="P13" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v>AimInfo.spent_frames_to_t2 &lt;= active_frame</v>
-      </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="16" t="str">
         <f>C14</f>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="E14" s="56" t="str">
-        <f t="shared" ref="E14:I14" si="9">D14</f>
+      <c r="E14" s="46" t="str">
+        <f t="shared" ref="E14:I14" si="12">D14</f>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="F14" s="56" t="str">
-        <f t="shared" si="9"/>
+      <c r="F14" s="46" t="str">
+        <f t="shared" si="12"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="G14" s="49" t="str">
-        <f t="shared" si="9"/>
+      <c r="G14" s="39" t="str">
+        <f t="shared" si="12"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="H14" s="49" t="str">
-        <f t="shared" si="9"/>
+      <c r="H14" s="39" t="str">
+        <f t="shared" si="12"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="I14" s="17" t="str">
-        <f t="shared" si="9"/>
+      <c r="I14" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="J14" s="52" t="str">
+      <c r="J14" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="K14" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="L14" s="42" t="str">
+        <f t="shared" ref="L14:P14" si="13">K14</f>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="M14" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="N14" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="O14" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="P14" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="Q14" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
+        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
+        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
+      </c>
+      <c r="R14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="K14" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="S14" s="42" t="str">
+        <f t="shared" si="3"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="L14" s="52" t="str">
-        <f t="shared" ref="L14:P14" si="10">K14</f>
+      <c r="T14" s="42" t="str">
+        <f t="shared" si="4"/>
         <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
         _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
         _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
       </c>
-      <c r="M14" s="52" t="str">
-        <f t="shared" si="10"/>
-        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
-        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
-        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
-      </c>
-      <c r="N14" s="52" t="str">
-        <f t="shared" si="10"/>
-        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
-        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
-        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
-      </c>
-      <c r="O14" s="52" t="str">
-        <f t="shared" si="10"/>
-        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
-        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
-        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
-      </c>
-      <c r="P14" s="52" t="str">
-        <f t="shared" si="10"/>
-        <v>aimChip(_x + pNaviVehicle-&gt;_velo_vc_x*4+1,
-        _y + pNaviVehicle-&gt;_velo_vc_y*4+1,
-        _z + pNaviVehicle-&gt;_velo_vc_z*4+1 );</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
